--- a/2025年度開設授業科目一覧メールアドレス入20250513-dummy.xlsx
+++ b/2025年度開設授業科目一覧メールアドレス入20250513-dummy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rjooske/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tasuk\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E43B0E7-3D62-9646-A109-95189B31868C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91EC0433-D8F1-4C9A-BF79-B98700A9CD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="開設科目一覧" sheetId="1" r:id="rId1"/>
@@ -112,102 +112,107 @@
     <t>短期留学生申請可否</t>
   </si>
   <si>
+    <t>データサイエンス**サテライト(実習室)で行いますので、入室の際は必ず学生証を持参して下さい。**</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>秋D</t>
+  </si>
+  <si>
+    <t>加藤フジヱ</t>
+  </si>
+  <si>
+    <t>fujiwe.kato@example.com</t>
+  </si>
+  <si>
+    <t>おばあちゃん</t>
+  </si>
+  <si>
+    <t>春X</t>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>江藤カズヲ</t>
+  </si>
+  <si>
+    <t>kazuwo.eto@example.com</t>
+  </si>
+  <si>
+    <t>おじいちゃん</t>
+  </si>
+  <si>
+    <t>夏α</t>
+  </si>
+  <si>
+    <t>BBB</t>
+  </si>
+  <si>
+    <t>CCC</t>
+  </si>
+  <si>
+    <t>佐藤きょん</t>
+  </si>
+  <si>
+    <t>kyon.sato@example.com</t>
+  </si>
+  <si>
+    <t>きょん</t>
+  </si>
+  <si>
+    <t>冬θ</t>
+  </si>
+  <si>
+    <t>DDD</t>
+  </si>
+  <si>
+    <t>斉藤ぎょん</t>
+  </si>
+  <si>
+    <t>gyon.saito@example.com</t>
+  </si>
+  <si>
+    <t>アンチアジャイルコーチ</t>
+  </si>
+  <si>
+    <t>6401102</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>6401202</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>6402202</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>6430102</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <t>情報リテラシー(演習)**サテライト(実習室)で行いますので、入室の際は必ず学生証を持参して下さい。**</t>
-  </si>
-  <si>
-    <t>データサイエンス**サテライト(実習室)で行いますので、入室の際は必ず学生証を持参して下さい。**</t>
-  </si>
-  <si>
-    <t>6501102</t>
-  </si>
-  <si>
-    <t>データサイエンス</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>秋D</t>
-  </si>
-  <si>
-    <t>加藤フジヱ</t>
-  </si>
-  <si>
-    <t>fujiwe.kato@example.com</t>
-  </si>
-  <si>
-    <t>おばあちゃん</t>
-  </si>
-  <si>
-    <t>6501202</t>
-  </si>
-  <si>
-    <t>春X</t>
-  </si>
-  <si>
-    <t>AAA</t>
-  </si>
-  <si>
-    <t>江藤カズヲ</t>
-  </si>
-  <si>
-    <t>kazuwo.eto@example.com</t>
-  </si>
-  <si>
-    <t>おじいちゃん</t>
-  </si>
-  <si>
-    <t>6502202</t>
-  </si>
-  <si>
-    <t>夏α</t>
-  </si>
-  <si>
-    <t>BBB</t>
-  </si>
-  <si>
-    <t>CCC</t>
-  </si>
-  <si>
-    <t>佐藤きょん</t>
-  </si>
-  <si>
-    <t>kyon.sato@example.com</t>
-  </si>
-  <si>
-    <t>きょん</t>
-  </si>
-  <si>
-    <t>6530102</t>
-  </si>
-  <si>
-    <t>冬θ</t>
-  </si>
-  <si>
-    <t>DDD</t>
-  </si>
-  <si>
-    <t>斉藤ぎょん</t>
-  </si>
-  <si>
-    <t>gyon.saito@example.com</t>
-  </si>
-  <si>
-    <t>アンチアジャイルコーチ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>情報リテラシー(演習)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Aptos Narrow"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -225,7 +230,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="Aptos Narrow"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -234,7 +239,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Aptos Narrow"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -247,7 +252,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -387,6 +392,67 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -399,7 +465,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -455,10 +521,37 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -795,38 +888,38 @@
   </sheetPr>
   <dimension ref="A1:M135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="252" workbookViewId="0">
-      <selection activeCell="G90" sqref="G90"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.83203125" customWidth="1"/>
+    <col min="1" max="1" width="4.875" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="3.1640625" customWidth="1"/>
-    <col min="4" max="5" width="3.33203125" customWidth="1"/>
+    <col min="3" max="3" width="3.125" customWidth="1"/>
+    <col min="4" max="5" width="3.375" customWidth="1"/>
     <col min="6" max="6" width="2.5" customWidth="1"/>
-    <col min="7" max="7" width="2.83203125" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" customWidth="1"/>
-    <col min="10" max="10" width="19.6640625" customWidth="1"/>
-    <col min="11" max="11" width="9.83203125" customWidth="1"/>
+    <col min="7" max="7" width="2.875" customWidth="1"/>
+    <col min="8" max="8" width="8.625" customWidth="1"/>
+    <col min="9" max="9" width="9.625" customWidth="1"/>
+    <col min="10" max="10" width="19.625" customWidth="1"/>
+    <col min="11" max="11" width="9.875" customWidth="1"/>
     <col min="12" max="13" width="5.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="14"/>
     </row>
-    <row r="2" spans="1:13" ht="4" customHeight="1"/>
-    <row r="3" spans="1:13">
+    <row r="2" spans="1:13" ht="3.95" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="44">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
@@ -867,7 +960,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
       <c r="B5" s="1"/>
       <c r="C5" s="5"/>
@@ -882,7 +975,7 @@
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="1"/>
       <c r="C6" s="5"/>
@@ -897,7 +990,7 @@
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" s="3"/>
       <c r="B7" s="1"/>
       <c r="C7" s="5"/>
@@ -912,7 +1005,7 @@
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" s="3"/>
       <c r="B8" s="1"/>
       <c r="C8" s="5"/>
@@ -927,7 +1020,7 @@
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
       <c r="B9" s="1"/>
       <c r="C9" s="5"/>
@@ -942,7 +1035,7 @@
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" s="3"/>
       <c r="B10" s="1"/>
       <c r="C10" s="5"/>
@@ -957,7 +1050,7 @@
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" s="3"/>
       <c r="B11" s="1"/>
       <c r="C11" s="5"/>
@@ -972,7 +1065,7 @@
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" s="3"/>
       <c r="B12" s="1"/>
       <c r="C12" s="5"/>
@@ -987,7 +1080,7 @@
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" s="3"/>
       <c r="B13" s="1"/>
       <c r="C13" s="5"/>
@@ -1002,7 +1095,7 @@
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" s="3"/>
       <c r="B14" s="1"/>
       <c r="C14" s="5"/>
@@ -1017,7 +1110,7 @@
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" s="3"/>
       <c r="B15" s="1"/>
       <c r="C15" s="5"/>
@@ -1032,7 +1125,7 @@
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="1"/>
       <c r="C16" s="5"/>
@@ -1047,7 +1140,7 @@
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" s="3"/>
       <c r="B17" s="1"/>
       <c r="C17" s="5"/>
@@ -1062,7 +1155,7 @@
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="1"/>
       <c r="C18" s="5"/>
@@ -1077,7 +1170,7 @@
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" s="1"/>
       <c r="C19" s="5"/>
@@ -1092,7 +1185,7 @@
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
       <c r="B20" s="1"/>
       <c r="C20" s="5"/>
@@ -1107,7 +1200,7 @@
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="1"/>
       <c r="C21" s="5"/>
@@ -1122,7 +1215,7 @@
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" s="3"/>
       <c r="B22" s="1"/>
       <c r="C22" s="5"/>
@@ -1137,7 +1230,7 @@
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" s="3"/>
       <c r="B23" s="1"/>
       <c r="C23" s="5"/>
@@ -1152,7 +1245,7 @@
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" s="3"/>
       <c r="B24" s="1"/>
       <c r="C24" s="5"/>
@@ -1167,7 +1260,7 @@
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="3"/>
       <c r="B25" s="1"/>
       <c r="C25" s="5"/>
@@ -1182,7 +1275,7 @@
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" s="3"/>
       <c r="B26" s="1"/>
       <c r="C26" s="5"/>
@@ -1197,7 +1290,7 @@
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" s="3"/>
       <c r="B27" s="1"/>
       <c r="C27" s="5"/>
@@ -1212,7 +1305,7 @@
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" s="3"/>
       <c r="B28" s="1"/>
       <c r="C28" s="5"/>
@@ -1227,7 +1320,7 @@
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" s="3"/>
       <c r="B29" s="1"/>
       <c r="C29" s="5"/>
@@ -1242,7 +1335,7 @@
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" s="3"/>
       <c r="B30" s="1"/>
       <c r="C30" s="5"/>
@@ -1257,7 +1350,7 @@
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="1"/>
       <c r="C31" s="5"/>
@@ -1272,7 +1365,7 @@
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" s="3"/>
       <c r="B32" s="1"/>
       <c r="C32" s="5"/>
@@ -1287,13 +1380,13 @@
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A33" s="15" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="J33" s="17"/>
     </row>
-    <row r="34" spans="1:13" ht="44">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" s="11" t="s">
         <v>2</v>
       </c>
@@ -1332,67 +1425,139 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
-      <c r="A35" s="3"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="12"/>
+    <row r="35" spans="1:13" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35" s="20"/>
+      <c r="I35" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J35" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" s="22" t="s">
+        <v>21</v>
+      </c>
       <c r="L35" s="7"/>
       <c r="M35" s="7"/>
     </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="3"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="12"/>
+    <row r="36" spans="1:13" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A36" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" s="25"/>
+      <c r="I36" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="J36" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="K36" s="27" t="s">
+        <v>26</v>
+      </c>
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
     </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="3"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="12"/>
+    <row r="37" spans="1:13" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A37" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="H37" s="25"/>
+      <c r="I37" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="J37" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="K37" s="27" t="s">
+        <v>32</v>
+      </c>
       <c r="L37" s="7"/>
       <c r="M37" s="7"/>
     </row>
-    <row r="38" spans="1:13">
-      <c r="A38" s="3"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="12"/>
+    <row r="38" spans="1:13" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A38" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="25"/>
+      <c r="D38" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="H38" s="25"/>
+      <c r="I38" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="J38" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="K38" s="27" t="s">
+        <v>37</v>
+      </c>
       <c r="L38" s="7"/>
       <c r="M38" s="7"/>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" s="3"/>
       <c r="B39" s="1"/>
       <c r="C39" s="5"/>
@@ -1407,7 +1572,7 @@
       <c r="L39" s="7"/>
       <c r="M39" s="7"/>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" s="3"/>
       <c r="B40" s="1"/>
       <c r="C40" s="5"/>
@@ -1422,7 +1587,7 @@
       <c r="L40" s="7"/>
       <c r="M40" s="7"/>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" s="3"/>
       <c r="B41" s="1"/>
       <c r="C41" s="5"/>
@@ -1437,7 +1602,7 @@
       <c r="L41" s="7"/>
       <c r="M41" s="7"/>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" s="3"/>
       <c r="B42" s="1"/>
       <c r="C42" s="5"/>
@@ -1452,7 +1617,7 @@
       <c r="L42" s="7"/>
       <c r="M42" s="7"/>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" s="3"/>
       <c r="B43" s="1"/>
       <c r="C43" s="5"/>
@@ -1467,7 +1632,7 @@
       <c r="L43" s="7"/>
       <c r="M43" s="7"/>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" s="3"/>
       <c r="B44" s="1"/>
       <c r="C44" s="5"/>
@@ -1482,7 +1647,7 @@
       <c r="L44" s="7"/>
       <c r="M44" s="7"/>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" s="3"/>
       <c r="B45" s="1"/>
       <c r="C45" s="5"/>
@@ -1497,7 +1662,7 @@
       <c r="L45" s="7"/>
       <c r="M45" s="7"/>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" s="3"/>
       <c r="B46" s="1"/>
       <c r="C46" s="5"/>
@@ -1512,7 +1677,7 @@
       <c r="L46" s="7"/>
       <c r="M46" s="7"/>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" s="3"/>
       <c r="B47" s="1"/>
       <c r="C47" s="5"/>
@@ -1527,7 +1692,7 @@
       <c r="L47" s="7"/>
       <c r="M47" s="7"/>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" s="3"/>
       <c r="B48" s="1"/>
       <c r="C48" s="5"/>
@@ -1542,7 +1707,7 @@
       <c r="L48" s="7"/>
       <c r="M48" s="7"/>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" s="3"/>
       <c r="B49" s="1"/>
       <c r="C49" s="5"/>
@@ -1557,7 +1722,7 @@
       <c r="L49" s="7"/>
       <c r="M49" s="7"/>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50" s="3"/>
       <c r="B50" s="1"/>
       <c r="C50" s="5"/>
@@ -1572,7 +1737,7 @@
       <c r="L50" s="7"/>
       <c r="M50" s="7"/>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" s="3"/>
       <c r="B51" s="1"/>
       <c r="C51" s="5"/>
@@ -1587,7 +1752,7 @@
       <c r="L51" s="7"/>
       <c r="M51" s="7"/>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A52" s="3"/>
       <c r="B52" s="1"/>
       <c r="C52" s="5"/>
@@ -1602,7 +1767,7 @@
       <c r="L52" s="7"/>
       <c r="M52" s="7"/>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A53" s="3"/>
       <c r="B53" s="1"/>
       <c r="C53" s="5"/>
@@ -1617,7 +1782,7 @@
       <c r="L53" s="7"/>
       <c r="M53" s="7"/>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A54" s="3"/>
       <c r="B54" s="1"/>
       <c r="C54" s="5"/>
@@ -1632,7 +1797,7 @@
       <c r="L54" s="7"/>
       <c r="M54" s="7"/>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A55" s="3"/>
       <c r="B55" s="1"/>
       <c r="C55" s="5"/>
@@ -1647,7 +1812,7 @@
       <c r="L55" s="7"/>
       <c r="M55" s="7"/>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A56" s="3"/>
       <c r="B56" s="1"/>
       <c r="C56" s="5"/>
@@ -1662,7 +1827,7 @@
       <c r="L56" s="7"/>
       <c r="M56" s="7"/>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57" s="3"/>
       <c r="B57" s="1"/>
       <c r="C57" s="5"/>
@@ -1677,7 +1842,7 @@
       <c r="L57" s="7"/>
       <c r="M57" s="7"/>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A58" s="3"/>
       <c r="B58" s="1"/>
       <c r="C58" s="5"/>
@@ -1692,7 +1857,7 @@
       <c r="L58" s="7"/>
       <c r="M58" s="7"/>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A59" s="3"/>
       <c r="B59" s="1"/>
       <c r="C59" s="5"/>
@@ -1707,7 +1872,7 @@
       <c r="L59" s="7"/>
       <c r="M59" s="7"/>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A60" s="3"/>
       <c r="B60" s="1"/>
       <c r="C60" s="5"/>
@@ -1722,7 +1887,7 @@
       <c r="L60" s="7"/>
       <c r="M60" s="7"/>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61" s="3"/>
       <c r="B61" s="1"/>
       <c r="C61" s="5"/>
@@ -1737,7 +1902,7 @@
       <c r="L61" s="7"/>
       <c r="M61" s="7"/>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62" s="3"/>
       <c r="B62" s="1"/>
       <c r="C62" s="5"/>
@@ -1752,7 +1917,7 @@
       <c r="L62" s="7"/>
       <c r="M62" s="7"/>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63" s="3"/>
       <c r="B63" s="1"/>
       <c r="C63" s="5"/>
@@ -1767,7 +1932,7 @@
       <c r="L63" s="7"/>
       <c r="M63" s="7"/>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64" s="3"/>
       <c r="B64" s="1"/>
       <c r="C64" s="5"/>
@@ -1782,7 +1947,7 @@
       <c r="L64" s="7"/>
       <c r="M64" s="7"/>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65" s="3"/>
       <c r="B65" s="1"/>
       <c r="C65" s="5"/>
@@ -1797,7 +1962,7 @@
       <c r="L65" s="7"/>
       <c r="M65" s="7"/>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66" s="3"/>
       <c r="B66" s="1"/>
       <c r="C66" s="5"/>
@@ -1812,7 +1977,7 @@
       <c r="L66" s="7"/>
       <c r="M66" s="7"/>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67" s="3"/>
       <c r="B67" s="1"/>
       <c r="C67" s="5"/>
@@ -1827,7 +1992,7 @@
       <c r="L67" s="7"/>
       <c r="M67" s="7"/>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68" s="3"/>
       <c r="B68" s="1"/>
       <c r="C68" s="5"/>
@@ -1842,7 +2007,7 @@
       <c r="L68" s="7"/>
       <c r="M68" s="7"/>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69" s="3"/>
       <c r="B69" s="1"/>
       <c r="C69" s="5"/>
@@ -1857,7 +2022,7 @@
       <c r="L69" s="7"/>
       <c r="M69" s="7"/>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70" s="3"/>
       <c r="B70" s="1"/>
       <c r="C70" s="5"/>
@@ -1872,7 +2037,7 @@
       <c r="L70" s="7"/>
       <c r="M70" s="7"/>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A71" s="3"/>
       <c r="B71" s="1"/>
       <c r="C71" s="5"/>
@@ -1887,7 +2052,7 @@
       <c r="L71" s="7"/>
       <c r="M71" s="7"/>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72" s="3"/>
       <c r="B72" s="1"/>
       <c r="C72" s="5"/>
@@ -1902,7 +2067,7 @@
       <c r="L72" s="7"/>
       <c r="M72" s="7"/>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73" s="3"/>
       <c r="B73" s="1"/>
       <c r="C73" s="5"/>
@@ -1917,7 +2082,7 @@
       <c r="L73" s="7"/>
       <c r="M73" s="7"/>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74" s="3"/>
       <c r="B74" s="1"/>
       <c r="C74" s="5"/>
@@ -1932,7 +2097,7 @@
       <c r="L74" s="7"/>
       <c r="M74" s="7"/>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A75" s="3"/>
       <c r="B75" s="1"/>
       <c r="C75" s="5"/>
@@ -1947,7 +2112,7 @@
       <c r="L75" s="7"/>
       <c r="M75" s="7"/>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A76" s="3"/>
       <c r="B76" s="1"/>
       <c r="C76" s="5"/>
@@ -1962,7 +2127,7 @@
       <c r="L76" s="7"/>
       <c r="M76" s="7"/>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A77" s="3"/>
       <c r="B77" s="1"/>
       <c r="C77" s="5"/>
@@ -1977,7 +2142,7 @@
       <c r="L77" s="7"/>
       <c r="M77" s="7"/>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A78" s="3"/>
       <c r="B78" s="1"/>
       <c r="C78" s="5"/>
@@ -1992,7 +2157,7 @@
       <c r="L78" s="7"/>
       <c r="M78" s="7"/>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A79" s="3"/>
       <c r="B79" s="1"/>
       <c r="C79" s="5"/>
@@ -2007,7 +2172,7 @@
       <c r="L79" s="7"/>
       <c r="M79" s="7"/>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A80" s="3"/>
       <c r="B80" s="1"/>
       <c r="C80" s="5"/>
@@ -2022,7 +2187,7 @@
       <c r="L80" s="7"/>
       <c r="M80" s="7"/>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A81" s="3"/>
       <c r="B81" s="1"/>
       <c r="C81" s="5"/>
@@ -2037,7 +2202,7 @@
       <c r="L81" s="7"/>
       <c r="M81" s="7"/>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A82" s="3"/>
       <c r="B82" s="1"/>
       <c r="C82" s="5"/>
@@ -2052,7 +2217,7 @@
       <c r="L82" s="7"/>
       <c r="M82" s="7"/>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83" s="3"/>
       <c r="B83" s="1"/>
       <c r="C83" s="5"/>
@@ -2067,13 +2232,13 @@
       <c r="L83" s="7"/>
       <c r="M83" s="7"/>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A84" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J84" s="17"/>
     </row>
-    <row r="85" spans="1:13" ht="44">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A85" s="11" t="s">
         <v>2</v>
       </c>
@@ -2112,139 +2277,67 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="32">
-      <c r="A86" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>18</v>
-      </c>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A86" s="3"/>
+      <c r="B86" s="1"/>
       <c r="C86" s="5"/>
-      <c r="D86" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G86" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
       <c r="H86" s="5"/>
-      <c r="I86" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J86" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="K86" s="12" t="s">
-        <v>24</v>
-      </c>
+      <c r="I86" s="1"/>
+      <c r="J86" s="18"/>
+      <c r="K86" s="12"/>
       <c r="L86" s="7"/>
       <c r="M86" s="7"/>
     </row>
-    <row r="87" spans="1:13" ht="32">
-      <c r="A87" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>18</v>
-      </c>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A87" s="3"/>
+      <c r="B87" s="1"/>
       <c r="C87" s="5"/>
-      <c r="D87" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G87" s="5" t="s">
-        <v>33</v>
-      </c>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
       <c r="H87" s="5"/>
-      <c r="I87" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J87" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="K87" s="12" t="s">
-        <v>30</v>
-      </c>
+      <c r="I87" s="1"/>
+      <c r="J87" s="18"/>
+      <c r="K87" s="12"/>
       <c r="L87" s="7"/>
       <c r="M87" s="7"/>
     </row>
-    <row r="88" spans="1:13" ht="32">
-      <c r="A88" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>18</v>
-      </c>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A88" s="3"/>
+      <c r="B88" s="1"/>
       <c r="C88" s="5"/>
-      <c r="D88" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F88" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G88" s="5" t="s">
-        <v>34</v>
-      </c>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
       <c r="H88" s="5"/>
-      <c r="I88" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J88" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="K88" s="12" t="s">
-        <v>37</v>
-      </c>
+      <c r="I88" s="1"/>
+      <c r="J88" s="18"/>
+      <c r="K88" s="12"/>
       <c r="L88" s="7"/>
       <c r="M88" s="7"/>
     </row>
-    <row r="89" spans="1:13" ht="32">
-      <c r="A89" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>18</v>
-      </c>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A89" s="3"/>
+      <c r="B89" s="1"/>
       <c r="C89" s="5"/>
-      <c r="D89" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F89" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G89" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
       <c r="H89" s="5"/>
-      <c r="I89" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J89" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="K89" s="12" t="s">
-        <v>43</v>
-      </c>
+      <c r="I89" s="1"/>
+      <c r="J89" s="18"/>
+      <c r="K89" s="12"/>
       <c r="L89" s="7"/>
       <c r="M89" s="7"/>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A90" s="3"/>
       <c r="B90" s="1"/>
       <c r="C90" s="5"/>
@@ -2259,7 +2352,7 @@
       <c r="L90" s="7"/>
       <c r="M90" s="7"/>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A91" s="3"/>
       <c r="B91" s="1"/>
       <c r="C91" s="5"/>
@@ -2274,7 +2367,7 @@
       <c r="L91" s="7"/>
       <c r="M91" s="7"/>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A92" s="3"/>
       <c r="B92" s="1"/>
       <c r="C92" s="5"/>
@@ -2289,7 +2382,7 @@
       <c r="L92" s="7"/>
       <c r="M92" s="7"/>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A93" s="3"/>
       <c r="B93" s="1"/>
       <c r="C93" s="5"/>
@@ -2304,7 +2397,7 @@
       <c r="L93" s="7"/>
       <c r="M93" s="7"/>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A94" s="3"/>
       <c r="B94" s="1"/>
       <c r="C94" s="5"/>
@@ -2319,7 +2412,7 @@
       <c r="L94" s="7"/>
       <c r="M94" s="7"/>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A95" s="3"/>
       <c r="B95" s="1"/>
       <c r="C95" s="5"/>
@@ -2334,7 +2427,7 @@
       <c r="L95" s="7"/>
       <c r="M95" s="7"/>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A96" s="3"/>
       <c r="B96" s="1"/>
       <c r="C96" s="5"/>
@@ -2349,7 +2442,7 @@
       <c r="L96" s="7"/>
       <c r="M96" s="7"/>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A97" s="3"/>
       <c r="B97" s="1"/>
       <c r="C97" s="5"/>
@@ -2364,7 +2457,7 @@
       <c r="L97" s="7"/>
       <c r="M97" s="7"/>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A98" s="3"/>
       <c r="B98" s="1"/>
       <c r="C98" s="5"/>
@@ -2379,7 +2472,7 @@
       <c r="L98" s="7"/>
       <c r="M98" s="7"/>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A99" s="3"/>
       <c r="B99" s="1"/>
       <c r="C99" s="5"/>
@@ -2394,7 +2487,7 @@
       <c r="L99" s="7"/>
       <c r="M99" s="7"/>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A100" s="3"/>
       <c r="B100" s="1"/>
       <c r="C100" s="5"/>
@@ -2409,7 +2502,7 @@
       <c r="L100" s="7"/>
       <c r="M100" s="7"/>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A101" s="3"/>
       <c r="B101" s="1"/>
       <c r="C101" s="5"/>
@@ -2424,7 +2517,7 @@
       <c r="L101" s="7"/>
       <c r="M101" s="7"/>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A102" s="3"/>
       <c r="B102" s="1"/>
       <c r="C102" s="5"/>
@@ -2439,7 +2532,7 @@
       <c r="L102" s="7"/>
       <c r="M102" s="7"/>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A103" s="3"/>
       <c r="B103" s="1"/>
       <c r="C103" s="5"/>
@@ -2454,7 +2547,7 @@
       <c r="L103" s="7"/>
       <c r="M103" s="7"/>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A104" s="3"/>
       <c r="B104" s="1"/>
       <c r="C104" s="5"/>
@@ -2469,7 +2562,7 @@
       <c r="L104" s="7"/>
       <c r="M104" s="7"/>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A105" s="3"/>
       <c r="B105" s="1"/>
       <c r="C105" s="5"/>
@@ -2484,7 +2577,7 @@
       <c r="L105" s="7"/>
       <c r="M105" s="7"/>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A106" s="3"/>
       <c r="B106" s="1"/>
       <c r="C106" s="5"/>
@@ -2499,7 +2592,7 @@
       <c r="L106" s="7"/>
       <c r="M106" s="7"/>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A107" s="3"/>
       <c r="B107" s="1"/>
       <c r="C107" s="5"/>
@@ -2514,7 +2607,7 @@
       <c r="L107" s="7"/>
       <c r="M107" s="7"/>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A108" s="3"/>
       <c r="B108" s="1"/>
       <c r="C108" s="5"/>
@@ -2529,7 +2622,7 @@
       <c r="L108" s="7"/>
       <c r="M108" s="7"/>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A109" s="3"/>
       <c r="B109" s="1"/>
       <c r="C109" s="5"/>
@@ -2544,7 +2637,7 @@
       <c r="L109" s="7"/>
       <c r="M109" s="7"/>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A110" s="3"/>
       <c r="B110" s="1"/>
       <c r="C110" s="5"/>
@@ -2559,7 +2652,7 @@
       <c r="L110" s="7"/>
       <c r="M110" s="7"/>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A111" s="3"/>
       <c r="B111" s="1"/>
       <c r="C111" s="5"/>
@@ -2574,7 +2667,7 @@
       <c r="L111" s="7"/>
       <c r="M111" s="7"/>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A112" s="3"/>
       <c r="B112" s="1"/>
       <c r="C112" s="5"/>
@@ -2589,7 +2682,7 @@
       <c r="L112" s="7"/>
       <c r="M112" s="7"/>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A113" s="3"/>
       <c r="B113" s="1"/>
       <c r="C113" s="5"/>
@@ -2604,7 +2697,7 @@
       <c r="L113" s="7"/>
       <c r="M113" s="7"/>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A114" s="3"/>
       <c r="B114" s="1"/>
       <c r="C114" s="5"/>
@@ -2619,7 +2712,7 @@
       <c r="L114" s="7"/>
       <c r="M114" s="7"/>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A115" s="3"/>
       <c r="B115" s="1"/>
       <c r="C115" s="5"/>
@@ -2634,7 +2727,7 @@
       <c r="L115" s="7"/>
       <c r="M115" s="7"/>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A116" s="3"/>
       <c r="B116" s="1"/>
       <c r="C116" s="5"/>
@@ -2649,7 +2742,7 @@
       <c r="L116" s="7"/>
       <c r="M116" s="7"/>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A117" s="3"/>
       <c r="B117" s="1"/>
       <c r="C117" s="5"/>
@@ -2664,7 +2757,7 @@
       <c r="L117" s="7"/>
       <c r="M117" s="7"/>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A118" s="3"/>
       <c r="B118" s="1"/>
       <c r="C118" s="5"/>
@@ -2679,7 +2772,7 @@
       <c r="L118" s="7"/>
       <c r="M118" s="7"/>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A119" s="3"/>
       <c r="B119" s="1"/>
       <c r="C119" s="5"/>
@@ -2694,7 +2787,7 @@
       <c r="L119" s="7"/>
       <c r="M119" s="7"/>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A120" s="3"/>
       <c r="B120" s="1"/>
       <c r="C120" s="5"/>
@@ -2709,7 +2802,7 @@
       <c r="L120" s="7"/>
       <c r="M120" s="7"/>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A121" s="3"/>
       <c r="B121" s="1"/>
       <c r="C121" s="5"/>
@@ -2724,7 +2817,7 @@
       <c r="L121" s="7"/>
       <c r="M121" s="7"/>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A122" s="3"/>
       <c r="B122" s="1"/>
       <c r="C122" s="5"/>
@@ -2739,7 +2832,7 @@
       <c r="L122" s="7"/>
       <c r="M122" s="7"/>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A123" s="3"/>
       <c r="B123" s="1"/>
       <c r="C123" s="5"/>
@@ -2754,7 +2847,7 @@
       <c r="L123" s="7"/>
       <c r="M123" s="7"/>
     </row>
-    <row r="124" spans="1:13">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A124" s="3"/>
       <c r="B124" s="1"/>
       <c r="C124" s="5"/>
@@ -2769,7 +2862,7 @@
       <c r="L124" s="7"/>
       <c r="M124" s="7"/>
     </row>
-    <row r="125" spans="1:13">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A125" s="3"/>
       <c r="B125" s="1"/>
       <c r="C125" s="5"/>
@@ -2784,7 +2877,7 @@
       <c r="L125" s="7"/>
       <c r="M125" s="7"/>
     </row>
-    <row r="126" spans="1:13">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A126" s="3"/>
       <c r="B126" s="1"/>
       <c r="C126" s="5"/>
@@ -2799,7 +2892,7 @@
       <c r="L126" s="7"/>
       <c r="M126" s="7"/>
     </row>
-    <row r="127" spans="1:13">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A127" s="3"/>
       <c r="B127" s="1"/>
       <c r="C127" s="5"/>
@@ -2814,7 +2907,7 @@
       <c r="L127" s="7"/>
       <c r="M127" s="7"/>
     </row>
-    <row r="128" spans="1:13">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A128" s="3"/>
       <c r="B128" s="1"/>
       <c r="C128" s="5"/>
@@ -2829,7 +2922,7 @@
       <c r="L128" s="7"/>
       <c r="M128" s="7"/>
     </row>
-    <row r="129" spans="1:13">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A129" s="3"/>
       <c r="B129" s="1"/>
       <c r="C129" s="5"/>
@@ -2844,7 +2937,7 @@
       <c r="L129" s="7"/>
       <c r="M129" s="7"/>
     </row>
-    <row r="130" spans="1:13">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A130" s="3"/>
       <c r="B130" s="1"/>
       <c r="C130" s="5"/>
@@ -2859,7 +2952,7 @@
       <c r="L130" s="7"/>
       <c r="M130" s="7"/>
     </row>
-    <row r="131" spans="1:13">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A131" s="3"/>
       <c r="B131" s="1"/>
       <c r="C131" s="5"/>
@@ -2874,7 +2967,7 @@
       <c r="L131" s="7"/>
       <c r="M131" s="7"/>
     </row>
-    <row r="132" spans="1:13">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A132" s="3"/>
       <c r="B132" s="1"/>
       <c r="C132" s="5"/>
@@ -2889,7 +2982,7 @@
       <c r="L132" s="7"/>
       <c r="M132" s="7"/>
     </row>
-    <row r="133" spans="1:13">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A133" s="3"/>
       <c r="B133" s="1"/>
       <c r="C133" s="5"/>
@@ -2904,7 +2997,7 @@
       <c r="L133" s="7"/>
       <c r="M133" s="7"/>
     </row>
-    <row r="134" spans="1:13">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A134" s="3"/>
       <c r="B134" s="1"/>
       <c r="C134" s="5"/>
@@ -2919,7 +3012,7 @@
       <c r="L134" s="7"/>
       <c r="M134" s="7"/>
     </row>
-    <row r="135" spans="1:13">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A135" s="4"/>
       <c r="B135" s="2"/>
       <c r="C135" s="6"/>
@@ -2937,10 +3030,10 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <hyperlinks>
-    <hyperlink ref="J86" r:id="rId1" xr:uid="{88594A12-A1B7-0F4B-9836-DFBBD0E082C6}"/>
-    <hyperlink ref="J87" r:id="rId2" xr:uid="{EC1D3FDC-4D6F-0842-8995-CA22618AD4BA}"/>
-    <hyperlink ref="J88" r:id="rId3" xr:uid="{9D556761-EBB6-C54B-81F4-6AA679A4D90A}"/>
-    <hyperlink ref="J89" r:id="rId4" xr:uid="{3CEAD429-25AA-CA49-81E0-39E578F128D0}"/>
+    <hyperlink ref="J35" r:id="rId1" display="mailto:fujiwe.kato@example.com" xr:uid="{9573E6E6-10DC-4569-87D4-A6E66A6C339B}"/>
+    <hyperlink ref="J36" r:id="rId2" display="mailto:kazuwo.eto@example.com" xr:uid="{AE743963-9977-4698-A90A-F909C45BFF04}"/>
+    <hyperlink ref="J37" r:id="rId3" display="mailto:kyon.sato@example.com" xr:uid="{8C344879-B657-4B4B-8370-0E6E2F209CFA}"/>
+    <hyperlink ref="J38" r:id="rId4" display="mailto:gyon.saito@example.com" xr:uid="{5FFF53A4-66AB-4C5F-8B0B-38F3B547C80F}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.45500000000000002" bottom="0.55000000000000004" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId5"/>
@@ -2948,26 +3041,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="12a3cce6-af28-4bdd-b8ff-1c2985e647a1">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="87318994-780f-4b21-9bb7-caa548ac9f09" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101004E459DD34C195B4385384C78E4DF3089" ma:contentTypeVersion="11" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="81383997571ed6e16f360c0f66edf41e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="12a3cce6-af28-4bdd-b8ff-1c2985e647a1" xmlns:ns3="87318994-780f-4b21-9bb7-caa548ac9f09" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="76ae68dbf79d6d3f901f0b9f088b7fbf" ns2:_="" ns3:_="">
     <xsd:import namespace="12a3cce6-af28-4bdd-b8ff-1c2985e647a1"/>
@@ -3162,10 +3235,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="12a3cce6-af28-4bdd-b8ff-1c2985e647a1">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="87318994-780f-4b21-9bb7-caa548ac9f09" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10E4FE00-7637-4509-A5D4-755ED02450DA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0524E119-5D25-4828-A829-486A32097E22}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="12a3cce6-af28-4bdd-b8ff-1c2985e647a1"/>
+    <ds:schemaRef ds:uri="87318994-780f-4b21-9bb7-caa548ac9f09"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3182,20 +3286,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0524E119-5D25-4828-A829-486A32097E22}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10E4FE00-7637-4509-A5D4-755ED02450DA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="12a3cce6-af28-4bdd-b8ff-1c2985e647a1"/>
-    <ds:schemaRef ds:uri="87318994-780f-4b21-9bb7-caa548ac9f09"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>